--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA108C-36CD-4D85-9658-32D5A75A368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8450F-B1A3-4FE7-81B6-F1038AE8109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4320" windowWidth="19455" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="4320" windowWidth="19455" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>UserEmail</t>
   </si>
@@ -418,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,4 +614,210 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5051822-8A45-4870-B8BD-BF1A3F6B4D26}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>493305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>3460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45813.333956030103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>493305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>11623</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45813.323206087996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>493305</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>5934</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45812.421507407402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>493305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>30003420</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45957.916790196803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>493305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>30003421</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45946.2694718403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>493305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>30003418</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45946.266081608803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8450F-B1A3-4FE7-81B6-F1038AE8109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602FA83-144A-4FA3-89B7-89C7181D21D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4320" windowWidth="19455" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="4320" windowWidth="19455" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>UserEmail</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Enrolled</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -417,15 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,7 +555,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -602,12 +607,38 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>45946.266081608803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>493305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>30003417</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>45946.266081608803</v>
       </c>
     </row>
@@ -620,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5051822-8A45-4870-B8BD-BF1A3F6B4D26}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602FA83-144A-4FA3-89B7-89C7181D21D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18D353-5643-482B-BDB0-24B6E28DB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4320" windowWidth="19455" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="5475" windowWidth="18990" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18D353-5643-482B-BDB0-24B6E28DB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCB5CFC-85EA-40A9-9994-6716212B5D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="5475" windowWidth="18990" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="4830" windowWidth="19815" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>UserEmail</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>wahid.sakhi@uipath.com</t>
   </si>
 </sst>
 </file>
@@ -423,14 +426,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,185 +468,70 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>493305</v>
+        <v>4666553</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>3460</v>
+        <v>30003420</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>45813.333956030103</v>
+        <v>45925.520246585598</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>493305</v>
+        <v>4666553</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>11623</v>
+        <v>30003421</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1">
-        <v>45813.323206087996</v>
+        <v>45925.520246585598</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>493305</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>5934</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45812.421507407402</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>493305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>30003420</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45957.916790196803</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>493305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>30003421</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45946.2694718403</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>493305</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>30003418</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45946.266081608803</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>493305</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>30003417</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45946.266081608803</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCB5CFC-85EA-40A9-9994-6716212B5D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC319C-B938-4017-B914-7771F7956174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="4830" windowWidth="19815" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17625" yWindow="5820" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,38 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>UserEmail</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>ItemId</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>ProgressPercentage</t>
-  </si>
-  <si>
-    <t>LastAccessDate</t>
-  </si>
-  <si>
-    <t>ganga.y@uipath.com</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
     <t>TAM FastStart</t>
   </si>
   <si>
@@ -65,9 +41,6 @@
     <t>Sales Engineers FastStart</t>
   </si>
   <si>
-    <t>LearningPlan</t>
-  </si>
-  <si>
     <t>Fast Start: What We Sell</t>
   </si>
   <si>
@@ -83,7 +56,58 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>wahid.sakhi@uipath.com</t>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>1566111@crmasked.com</t>
+  </si>
+  <si>
+    <t>aaron.hubbart@uipath.com</t>
+  </si>
+  <si>
+    <t>aaron.schiel@uipath.com</t>
+  </si>
+  <si>
+    <t>aashna.bhaskaran@uipath.com</t>
+  </si>
+  <si>
+    <t>abdelaziz.zaiter@uipath.com</t>
+  </si>
+  <si>
+    <t>adam.cone@uipath.com</t>
+  </si>
+  <si>
+    <t>adam.wozniak@uipath.com</t>
+  </si>
+  <si>
+    <t>adi.georgescu@uipath.com</t>
+  </si>
+  <si>
+    <t>Fast Start: Sellers’ Tech Hub</t>
+  </si>
+  <si>
+    <t>aditya.rege@uipath.com</t>
+  </si>
+  <si>
+    <t>adlane.yahiaoui@uipath.com</t>
+  </si>
+  <si>
+    <t>adrian.braun@uipath.com</t>
+  </si>
+  <si>
+    <t>adrian.giblett@uipath.com</t>
+  </si>
+  <si>
+    <t>adrian.tamas@uipath.com</t>
+  </si>
+  <si>
+    <t>adriana.alecu@uipath.com</t>
   </si>
 </sst>
 </file>
@@ -118,9 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,115 +450,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30003418</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30003420</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30003417</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30003421</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>4666553</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>30003420</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45925.520246585598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>4666553</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>30003421</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45925.520246585598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -540,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5051822-8A45-4870-B8BD-BF1A3F6B4D26}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,185 +578,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3460</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3460</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5934</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11623</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5934</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5934</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3460</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30003418</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30003420</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30003417</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30003421</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30003420</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11623</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30003421</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30003418</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>493305</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30003417</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30003420</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11623</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3460</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11623</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>3460</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45813.333956030103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>493305</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>11623</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45813.323206087996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>493305</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>5934</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45812.421507407402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>493305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>30003420</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45957.916790196803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>493305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>30003421</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45946.2694718403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>493305</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>30003418</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45946.266081608803</v>
+      <c r="E21" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
